--- a/apoio2.xlsx
+++ b/apoio2.xlsx
@@ -77,6 +77,110 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1874520" y="3086100"/>
+          <a:ext cx="7330440" cy="2263140"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="137160"/>
+          <a:ext cx="7429500" cy="2804160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -899,6 +1003,148 @@
             <a:rPr lang="pt-PT" sz="1100"/>
             <a:t>INTERNET</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235440" y="1417320"/>
+          <a:ext cx="1165860" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1"/>
+            <a:t>SISTEMA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t> SCADA</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9342120" y="3817620"/>
+          <a:ext cx="1714500" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1"/>
+            <a:t>HARDWARE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>E </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1600" b="1" baseline="0"/>
+            <a:t>PROCESSO FÍSICO</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1173,12 +1419,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>